--- a/biology/Botanique/Epipactis_atrorubens/Epipactis_atrorubens.xlsx
+++ b/biology/Botanique/Epipactis_atrorubens/Epipactis_atrorubens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis atrorubens
 L'Épipactis pourpre noirâtre (Epipactis atrorubens) ou Épipactis rouge sombre est une plante herbacée vivace de la famille des Orchidaceae.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Epipactis atropurpurea Rafin.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 15 à 50 cm, les feuilles sont ovales, lancéolées, les fleurs sont rouge sombre et sentent la vanille.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez commune des sols squelettiques, des éboulis ou des sols sableux sur substrat calcaire. Héliophile, on peut la rencontrer sur des dunes, des pelouses ou bois clairs, du niveau de la mer jusqu'à 2 400 m d'altitude environ.
 </t>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est trouvée en Europe, de l'océan Atlantique jusqu'au Caucase.
 </t>
@@ -635,7 +655,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison en Île-de-France a lieu de mi-juin à mi-juillet ; en Europe, de mai à août, selon la latitude et l'altitude.
 </t>
@@ -666,9 +688,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sur les Listes Rouges d'Europe et de France, l'espèce est classée « LC » : Préoccupation mineure[1]. Elle est néanmoins protégée dans le Centre, en Basse et Haute Normandie, Dans le Nord-Pas-de-Calais et en Pays de la Loire.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sur les Listes Rouges d'Europe et de France, l'espèce est classée « LC » : Préoccupation mineure. Elle est néanmoins protégée dans le Centre, en Basse et Haute Normandie, Dans le Nord-Pas-de-Calais et en Pays de la Loire.
 Liste des espèces végétales protégées dans le Centre
 Liste des espèces végétales protégées en Basse-Normandie
 Liste des espèces végétales protégées en Haute-Normandie
